--- a/assignment9/Assignment 9 Sprint 1 Backlog-2.xlsx
+++ b/assignment9/Assignment 9 Sprint 1 Backlog-2.xlsx
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="74">
-  <si>
-    <t>Description</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="76">
   <si>
     <t>Sprint 1 Backlog</t>
   </si>
@@ -118,9 +115,6 @@
     <t>Tyler</t>
   </si>
   <si>
-    <t>Link to GitHub in Eclipse</t>
-  </si>
-  <si>
     <t>Sam</t>
   </si>
   <si>
@@ -212,14 +206,6 @@
 Spent</t>
   </si>
   <si>
-    <t>Day 1
-Left</t>
-  </si>
-  <si>
-    <t>Day 2
-Spent</t>
-  </si>
-  <si>
     <t>Day 2
 Left</t>
   </si>
@@ -235,10 +221,6 @@
 Left</t>
   </si>
   <si>
-    <t>Day 5
-Left</t>
-  </si>
-  <si>
     <t>Day 6
 Left</t>
   </si>
@@ -256,6 +238,32 @@
   </si>
   <si>
     <t>Day 10
+Left</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Link to GitHub in Eclipse and create repository</t>
+  </si>
+  <si>
+    <t>Day 5
+Spent</t>
+  </si>
+  <si>
+    <t>Day 11
+Left</t>
+  </si>
+  <si>
+    <t>Day 12
+Left</t>
+  </si>
+  <si>
+    <t>Day 13
+Left</t>
+  </si>
+  <si>
+    <t>Day 14
 Left</t>
   </si>
 </sst>
@@ -315,7 +323,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -324,18 +332,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14996795556505021"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -364,6 +390,43 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -383,39 +446,6 @@
         <color auto="1"/>
       </left>
       <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
         <color auto="1"/>
       </right>
       <top style="thin">
@@ -451,23 +481,49 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
+      <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thick">
+      <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -496,77 +552,76 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2918,7 +2973,7 @@
   <dimension ref="A1:Q51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2929,1155 +2984,1163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="29" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="24"/>
       <c r="D1" s="24"/>
       <c r="E1" s="24"/>
       <c r="F1" s="24"/>
       <c r="G1" s="24"/>
       <c r="H1" s="24"/>
       <c r="I1" s="24"/>
-      <c r="J1" s="25"/>
-    </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="26" t="s">
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+    </row>
+    <row r="2" spans="1:17" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="31"/>
+    </row>
+    <row r="3" spans="1:17" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="34"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="36" t="s">
+      <c r="E3" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-    </row>
-    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="28"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="22" t="s">
+      <c r="F3" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="J3" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="K3" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="I3" s="35" t="s">
+      <c r="L3" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="J3" s="35" t="s">
+      <c r="M3" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="K3" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="L3" s="35" t="s">
+      <c r="N3" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="O3" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="P3" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q3" s="38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="89.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="D4" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+    </row>
+    <row r="5" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="19">
+        <v>1</v>
+      </c>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+    </row>
+    <row r="6" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="M3" s="35" t="s">
+      <c r="B6" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="19">
+        <v>1</v>
+      </c>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+    </row>
+    <row r="7" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="N3" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="O3" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="P3" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q3" s="35" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="89.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="16" t="s">
+      <c r="B7" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="19">
+        <v>1</v>
+      </c>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+    </row>
+    <row r="8" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="19">
+        <v>1</v>
+      </c>
+      <c r="D8" s="25">
+        <v>0.25</v>
+      </c>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+    </row>
+    <row r="9" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="19">
+        <v>1</v>
+      </c>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+    </row>
+    <row r="10" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+    </row>
+    <row r="11" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+    </row>
+    <row r="12" spans="1:17" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="19">
+        <v>2</v>
+      </c>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+    </row>
+    <row r="13" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="19">
+        <v>2</v>
+      </c>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+    </row>
+    <row r="14" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="19">
+        <v>1</v>
+      </c>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+    </row>
+    <row r="15" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="19">
+        <v>1</v>
+      </c>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+    </row>
+    <row r="16" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="19">
+        <v>2</v>
+      </c>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+    </row>
+    <row r="17" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="19">
+        <v>2</v>
+      </c>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+    </row>
+    <row r="18" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="19">
+        <v>1</v>
+      </c>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
+    </row>
+    <row r="19" spans="1:17" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="19">
+        <v>1</v>
+      </c>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21"/>
+    </row>
+    <row r="20" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="30">
-        <v>0.5</v>
-      </c>
-      <c r="D4" s="39">
-        <v>0.5</v>
-      </c>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-    </row>
-    <row r="5" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="16" t="s">
+      <c r="B20" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="21">
+        <v>1</v>
+      </c>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
+    </row>
+    <row r="21" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="21">
+        <v>1</v>
+      </c>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
+    </row>
+    <row r="22" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="21">
+        <v>1</v>
+      </c>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
+    </row>
+    <row r="23" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="21">
+        <v>1</v>
+      </c>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21"/>
+    </row>
+    <row r="24" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="21">
         <v>2</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="21"/>
+    </row>
+    <row r="25" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="21">
+        <v>2</v>
+      </c>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21"/>
+    </row>
+    <row r="26" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="21">
+        <v>4</v>
+      </c>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="21"/>
+    </row>
+    <row r="27" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="21">
+        <v>4</v>
+      </c>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="21"/>
+    </row>
+    <row r="28" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="30">
-        <v>1</v>
-      </c>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
-    </row>
-    <row r="6" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="30" t="s">
+      <c r="C28" s="21">
+        <v>4</v>
+      </c>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="21"/>
+    </row>
+    <row r="29" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="22">
+        <v>4</v>
+      </c>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="21"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A30" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="30">
-        <v>1</v>
-      </c>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="39"/>
-    </row>
-    <row r="7" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="30" t="s">
+      <c r="C30" s="22">
+        <v>2</v>
+      </c>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="21"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A31" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="22">
+        <v>2</v>
+      </c>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="21"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A32" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="30">
-        <v>1</v>
-      </c>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-    </row>
-    <row r="8" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="30">
-        <v>1</v>
-      </c>
-      <c r="D8" s="38">
-        <v>0.25</v>
-      </c>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="39"/>
-    </row>
-    <row r="9" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="30" t="s">
+      <c r="C32" s="22">
+        <v>2</v>
+      </c>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="21"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A33" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="22">
+        <v>2</v>
+      </c>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="21"/>
+      <c r="Q33" s="21"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A34" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="22">
+        <v>4</v>
+      </c>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="21"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A35" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="30">
-        <v>1</v>
-      </c>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39"/>
-    </row>
-    <row r="10" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="30" t="s">
+      <c r="C35" s="22">
+        <v>4</v>
+      </c>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="21"/>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="21"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A36" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="22">
+        <v>4</v>
+      </c>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="21"/>
+      <c r="O36" s="21"/>
+      <c r="P36" s="21"/>
+      <c r="Q36" s="21"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A37" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="21">
+        <v>4</v>
+      </c>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="21"/>
+      <c r="O37" s="21"/>
+      <c r="P37" s="21"/>
+      <c r="Q37" s="21"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A38" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="21">
+        <v>2</v>
+      </c>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="21"/>
+      <c r="O38" s="21"/>
+      <c r="P38" s="21"/>
+      <c r="Q38" s="21"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A39" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="30">
-        <v>0.1</v>
-      </c>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="39"/>
-    </row>
-    <row r="11" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="30" t="s">
+      <c r="C39" s="21">
+        <v>2</v>
+      </c>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="21"/>
+      <c r="P39" s="21"/>
+      <c r="Q39" s="21"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A40" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="30">
-        <v>0.5</v>
-      </c>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="40"/>
-    </row>
-    <row r="12" spans="1:17" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="30">
+      <c r="C40" s="21">
         <v>2</v>
       </c>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="41"/>
-      <c r="Q12" s="41"/>
-    </row>
-    <row r="13" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="30">
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="21"/>
+      <c r="O40" s="21"/>
+      <c r="P40" s="21"/>
+      <c r="Q40" s="21"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A41" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="21">
         <v>2</v>
       </c>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="42"/>
-      <c r="P13" s="42"/>
-      <c r="Q13" s="42"/>
-    </row>
-    <row r="14" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="30">
-        <v>1</v>
-      </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="32"/>
-    </row>
-    <row r="15" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="30">
-        <v>1</v>
-      </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="32"/>
-      <c r="P15" s="32"/>
-      <c r="Q15" s="32"/>
-    </row>
-    <row r="16" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="30">
-        <v>2</v>
-      </c>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="32"/>
-    </row>
-    <row r="17" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="30">
-        <v>2</v>
-      </c>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="32"/>
-    </row>
-    <row r="18" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="30">
-        <v>1</v>
-      </c>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="32"/>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="32"/>
-    </row>
-    <row r="19" spans="1:17" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="30">
-        <v>1</v>
-      </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="32"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="32"/>
-    </row>
-    <row r="20" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="32">
-        <v>1</v>
-      </c>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="32"/>
-    </row>
-    <row r="21" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="32">
-        <v>1</v>
-      </c>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="32"/>
-      <c r="Q21" s="32"/>
-    </row>
-    <row r="22" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="32">
-        <v>1</v>
-      </c>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="32"/>
-      <c r="O22" s="32"/>
-      <c r="P22" s="32"/>
-      <c r="Q22" s="32"/>
-    </row>
-    <row r="23" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="32">
-        <v>1</v>
-      </c>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="32"/>
-      <c r="O23" s="32"/>
-      <c r="P23" s="32"/>
-      <c r="Q23" s="32"/>
-    </row>
-    <row r="24" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="32">
-        <v>2</v>
-      </c>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="32"/>
-      <c r="N24" s="32"/>
-      <c r="O24" s="32"/>
-      <c r="P24" s="32"/>
-      <c r="Q24" s="32"/>
-    </row>
-    <row r="25" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="32">
-        <v>2</v>
-      </c>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="32"/>
-      <c r="P25" s="32"/>
-      <c r="Q25" s="32"/>
-    </row>
-    <row r="26" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" s="32">
-        <v>4</v>
-      </c>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="32"/>
-      <c r="O26" s="32"/>
-      <c r="P26" s="32"/>
-      <c r="Q26" s="32"/>
-    </row>
-    <row r="27" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="32">
-        <v>4</v>
-      </c>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="32"/>
-      <c r="O27" s="32"/>
-      <c r="P27" s="32"/>
-      <c r="Q27" s="32"/>
-    </row>
-    <row r="28" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="32">
-        <v>4</v>
-      </c>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="32"/>
-      <c r="N28" s="32"/>
-      <c r="O28" s="32"/>
-      <c r="P28" s="32"/>
-      <c r="Q28" s="32"/>
-    </row>
-    <row r="29" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="33">
-        <v>4</v>
-      </c>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="32"/>
-      <c r="M29" s="32"/>
-      <c r="N29" s="32"/>
-      <c r="O29" s="32"/>
-      <c r="P29" s="32"/>
-      <c r="Q29" s="32"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A30" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="33">
-        <v>2</v>
-      </c>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="32"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="32"/>
-      <c r="M30" s="32"/>
-      <c r="N30" s="32"/>
-      <c r="O30" s="32"/>
-      <c r="P30" s="32"/>
-      <c r="Q30" s="32"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A31" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="33">
-        <v>2</v>
-      </c>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="32"/>
-      <c r="N31" s="32"/>
-      <c r="O31" s="32"/>
-      <c r="P31" s="32"/>
-      <c r="Q31" s="32"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A32" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="33">
-        <v>2</v>
-      </c>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="32"/>
-      <c r="K32" s="32"/>
-      <c r="L32" s="32"/>
-      <c r="M32" s="32"/>
-      <c r="N32" s="32"/>
-      <c r="O32" s="32"/>
-      <c r="P32" s="32"/>
-      <c r="Q32" s="32"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A33" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" s="33">
-        <v>2</v>
-      </c>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="32"/>
-      <c r="N33" s="32"/>
-      <c r="O33" s="32"/>
-      <c r="P33" s="32"/>
-      <c r="Q33" s="32"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A34" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="B34" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" s="33">
-        <v>4</v>
-      </c>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="32"/>
-      <c r="K34" s="32"/>
-      <c r="L34" s="32"/>
-      <c r="M34" s="32"/>
-      <c r="N34" s="32"/>
-      <c r="O34" s="32"/>
-      <c r="P34" s="32"/>
-      <c r="Q34" s="32"/>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A35" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="C35" s="33">
-        <v>4</v>
-      </c>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="32"/>
-      <c r="K35" s="32"/>
-      <c r="L35" s="32"/>
-      <c r="M35" s="32"/>
-      <c r="N35" s="32"/>
-      <c r="O35" s="32"/>
-      <c r="P35" s="32"/>
-      <c r="Q35" s="32"/>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A36" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="B36" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="33">
-        <v>4</v>
-      </c>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="32"/>
-      <c r="J36" s="32"/>
-      <c r="K36" s="32"/>
-      <c r="L36" s="32"/>
-      <c r="M36" s="32"/>
-      <c r="N36" s="32"/>
-      <c r="O36" s="32"/>
-      <c r="P36" s="32"/>
-      <c r="Q36" s="32"/>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A37" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="B37" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C37" s="32">
-        <v>4</v>
-      </c>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="32"/>
-      <c r="J37" s="32"/>
-      <c r="K37" s="32"/>
-      <c r="L37" s="32"/>
-      <c r="M37" s="32"/>
-      <c r="N37" s="32"/>
-      <c r="O37" s="32"/>
-      <c r="P37" s="32"/>
-      <c r="Q37" s="32"/>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A38" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="B38" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C38" s="32">
-        <v>2</v>
-      </c>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="32"/>
-      <c r="I38" s="32"/>
-      <c r="J38" s="32"/>
-      <c r="K38" s="32"/>
-      <c r="L38" s="32"/>
-      <c r="M38" s="32"/>
-      <c r="N38" s="32"/>
-      <c r="O38" s="32"/>
-      <c r="P38" s="32"/>
-      <c r="Q38" s="32"/>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A39" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="B39" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="C39" s="32">
-        <v>2</v>
-      </c>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="32"/>
-      <c r="K39" s="32"/>
-      <c r="L39" s="32"/>
-      <c r="M39" s="32"/>
-      <c r="N39" s="32"/>
-      <c r="O39" s="32"/>
-      <c r="P39" s="32"/>
-      <c r="Q39" s="32"/>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A40" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="B40" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C40" s="32">
-        <v>2</v>
-      </c>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="32"/>
-      <c r="I40" s="32"/>
-      <c r="J40" s="32"/>
-      <c r="K40" s="32"/>
-      <c r="L40" s="32"/>
-      <c r="M40" s="32"/>
-      <c r="N40" s="32"/>
-      <c r="O40" s="32"/>
-      <c r="P40" s="32"/>
-      <c r="Q40" s="32"/>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A41" s="34" t="s">
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="21"/>
+      <c r="O41" s="21"/>
+      <c r="P41" s="21"/>
+      <c r="Q41" s="21"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A42" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C41" s="32">
-        <v>2</v>
-      </c>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="32"/>
-      <c r="I41" s="32"/>
-      <c r="J41" s="32"/>
-      <c r="K41" s="32"/>
-      <c r="L41" s="32"/>
-      <c r="M41" s="32"/>
-      <c r="N41" s="32"/>
-      <c r="O41" s="32"/>
-      <c r="P41" s="32"/>
-      <c r="Q41" s="32"/>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A42" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="B42" s="33"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="32"/>
-      <c r="I42" s="32"/>
-      <c r="J42" s="32"/>
-      <c r="K42" s="32"/>
-      <c r="L42" s="32"/>
-      <c r="M42" s="32"/>
-      <c r="N42" s="32"/>
-      <c r="O42" s="32"/>
-      <c r="P42" s="32"/>
-      <c r="Q42" s="32"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="21"/>
+      <c r="M42" s="21"/>
+      <c r="N42" s="21"/>
+      <c r="O42" s="21"/>
+      <c r="P42" s="21"/>
+      <c r="Q42" s="21"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A43" s="21"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="32"/>
-      <c r="I43" s="32"/>
-      <c r="J43" s="32"/>
-      <c r="K43" s="32"/>
-      <c r="L43" s="32"/>
-      <c r="M43" s="32"/>
-      <c r="N43" s="32"/>
-      <c r="O43" s="32"/>
-      <c r="P43" s="32"/>
-      <c r="Q43" s="32"/>
+      <c r="A43" s="18"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="21"/>
+      <c r="M43" s="21"/>
+      <c r="N43" s="21"/>
+      <c r="O43" s="21"/>
+      <c r="P43" s="21"/>
+      <c r="Q43" s="21"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A44" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20">
+      <c r="A44" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" s="17"/>
+      <c r="C44" s="40">
         <f>SUM(C4:C41)</f>
         <v>74.099999999999994</v>
       </c>
-      <c r="D44" s="32">
+      <c r="D44" s="41">
         <f>SUM(D4:D41)</f>
         <v>0.75</v>
       </c>
-      <c r="E44" s="32">
+      <c r="E44" s="41">
         <f>SUM(E4:E41)</f>
         <v>0</v>
       </c>
-      <c r="F44" s="32">
+      <c r="F44" s="41">
         <f>SUM(F4:F41)</f>
         <v>0</v>
       </c>
-      <c r="G44" s="32">
+      <c r="G44" s="41">
         <f>SUM(G4:G41)</f>
         <v>0</v>
       </c>
-      <c r="H44" s="32">
+      <c r="H44" s="41">
         <f>SUM(H4:H41)</f>
         <v>0</v>
       </c>
-      <c r="I44" s="32">
+      <c r="I44" s="41">
         <f>SUM(I4:I41)</f>
         <v>0</v>
       </c>
-      <c r="J44" s="32">
+      <c r="J44" s="41">
         <f>SUM(J4:J41)</f>
         <v>0</v>
       </c>
-      <c r="K44" s="32">
+      <c r="K44" s="41">
         <f>SUM(K4:K41)</f>
         <v>0</v>
       </c>
-      <c r="L44" s="32">
+      <c r="L44" s="41">
         <f>SUM(L4:L41)</f>
         <v>0</v>
       </c>
-      <c r="M44" s="32">
+      <c r="M44" s="41">
         <f>SUM(M4:M41)</f>
         <v>0</v>
       </c>
-      <c r="N44" s="32">
+      <c r="N44" s="41">
         <f>SUM(N4:N41)</f>
         <v>0</v>
       </c>
-      <c r="O44" s="32">
+      <c r="O44" s="41">
         <f>SUM(O4:O41)</f>
         <v>0</v>
       </c>
-      <c r="P44" s="32">
+      <c r="P44" s="41">
         <f>SUM(P4:P41)</f>
         <v>0</v>
       </c>
-      <c r="Q44" s="32">
+      <c r="Q44" s="41">
         <f>SUM(Q4:Q41)</f>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="5">
@@ -4104,8 +4167,10 @@
       <c r="B51" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D2:P2"/>
+  <mergeCells count="3">
+    <mergeCell ref="B1:Q1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C2:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4130,13 +4195,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -4163,7 +4228,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3" s="9"/>
     </row>
@@ -4183,7 +4248,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" s="9"/>
     </row>
@@ -4203,7 +4268,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5" s="9"/>
     </row>
@@ -4223,7 +4288,7 @@
         <v>4</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6" s="9"/>
     </row>
@@ -4243,7 +4308,7 @@
         <v>5</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F7" s="9"/>
     </row>
@@ -4263,7 +4328,7 @@
         <v>6</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8" s="9"/>
     </row>
@@ -4283,7 +4348,7 @@
         <v>7</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F9" s="9"/>
     </row>
@@ -4303,7 +4368,7 @@
         <v>8</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F10" s="9"/>
     </row>
@@ -4323,7 +4388,7 @@
         <v>9</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F11" s="9"/>
     </row>
@@ -4343,7 +4408,7 @@
         <v>10</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F12" s="9"/>
     </row>
@@ -4363,7 +4428,7 @@
         <v>11</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F13" s="10"/>
     </row>
@@ -4383,7 +4448,7 @@
         <v>12</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F14" s="10"/>
     </row>
@@ -4403,7 +4468,7 @@
         <v>13</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F15" s="10"/>
     </row>
@@ -4423,7 +4488,7 @@
         <v>14</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F16" s="10"/>
     </row>

--- a/assignment9/Assignment 9 Sprint 1 Backlog-2.xlsx
+++ b/assignment9/Assignment 9 Sprint 1 Backlog-2.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13780" windowHeight="10180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13776" windowHeight="10176"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
     <sheet name="Chart1" sheetId="3" r:id="rId2"/>
     <sheet name="Burndown Chart" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -270,7 +270,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -584,7 +584,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -600,16 +599,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -624,6 +613,17 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -642,7 +642,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -824,7 +824,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2C12-49F0-B968-6BB18B52A8DF}"/>
             </c:ext>
@@ -994,7 +994,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1207,7 +1207,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A739-42AD-876C-70D2959FCA37}"/>
             </c:ext>
@@ -2614,7 +2614,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="115" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="87" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2625,10 +2625,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8663609" cy="6289261"/>
+    <xdr:ext cx="8644759" cy="6244897"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks noGrp="1"/>
         </xdr:cNvGraphicFramePr>
@@ -2665,7 +2671,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3" title="Remaining Hrs"/>
+        <xdr:cNvPr id="4" name="Chart 3" title="Remaining Hrs">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2759,6 +2771,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2794,6 +2823,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2972,113 +3018,113 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.1796875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.90625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.54296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="51.21875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="29" thickBot="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:17" ht="29.4" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-    </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="39" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+    </row>
+    <row r="2" spans="1:17" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="31"/>
-    </row>
-    <row r="3" spans="1:17" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="34"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="37" t="s">
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="41"/>
+    </row>
+    <row r="3" spans="1:17" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="37"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="G3" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="H3" s="38" t="s">
+      <c r="H3" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="I3" s="38" t="s">
+      <c r="I3" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="J3" s="38" t="s">
+      <c r="J3" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="K3" s="38" t="s">
+      <c r="K3" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="L3" s="38" t="s">
+      <c r="L3" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="M3" s="38" t="s">
+      <c r="M3" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="N3" s="38" t="s">
+      <c r="N3" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="O3" s="38" t="s">
+      <c r="O3" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="P3" s="38" t="s">
+      <c r="P3" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="Q3" s="38" t="s">
+      <c r="Q3" s="31" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="89.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" ht="89.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>20</v>
       </c>
@@ -3088,24 +3134,24 @@
       <c r="C4" s="19">
         <v>0.5</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="25">
         <v>0.5</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-    </row>
-    <row r="5" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+    </row>
+    <row r="5" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>1</v>
       </c>
@@ -3115,22 +3161,22 @@
       <c r="C5" s="19">
         <v>1</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-    </row>
-    <row r="6" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+    </row>
+    <row r="6" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>70</v>
       </c>
@@ -3140,22 +3186,24 @@
       <c r="C6" s="19">
         <v>1</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-    </row>
-    <row r="7" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D6" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+    </row>
+    <row r="7" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>70</v>
       </c>
@@ -3165,22 +3213,22 @@
       <c r="C7" s="19">
         <v>1</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-    </row>
-    <row r="8" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+    </row>
+    <row r="8" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>70</v>
       </c>
@@ -3190,24 +3238,24 @@
       <c r="C8" s="19">
         <v>1</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="24">
         <v>0.25</v>
       </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-    </row>
-    <row r="9" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+    </row>
+    <row r="9" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>70</v>
       </c>
@@ -3217,22 +3265,22 @@
       <c r="C9" s="19">
         <v>1</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-    </row>
-    <row r="10" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+    </row>
+    <row r="10" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>5</v>
       </c>
@@ -3242,22 +3290,22 @@
       <c r="C10" s="19">
         <v>0.1</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-    </row>
-    <row r="11" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+    </row>
+    <row r="11" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
         <v>31</v>
       </c>
@@ -3267,22 +3315,22 @@
       <c r="C11" s="19">
         <v>0.5</v>
       </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="27"/>
-    </row>
-    <row r="12" spans="1:17" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+    </row>
+    <row r="12" spans="1:17" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>36</v>
       </c>
@@ -3292,22 +3340,22 @@
       <c r="C12" s="19">
         <v>2</v>
       </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="28"/>
-    </row>
-    <row r="13" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+    </row>
+    <row r="13" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
         <v>37</v>
       </c>
@@ -3317,22 +3365,22 @@
       <c r="C13" s="19">
         <v>2</v>
       </c>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="29"/>
-    </row>
-    <row r="14" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+    </row>
+    <row r="14" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>11</v>
       </c>
@@ -3357,7 +3405,7 @@
       <c r="P14" s="21"/>
       <c r="Q14" s="21"/>
     </row>
-    <row r="15" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>38</v>
       </c>
@@ -3382,7 +3430,7 @@
       <c r="P15" s="21"/>
       <c r="Q15" s="21"/>
     </row>
-    <row r="16" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>39</v>
       </c>
@@ -3407,7 +3455,7 @@
       <c r="P16" s="21"/>
       <c r="Q16" s="21"/>
     </row>
-    <row r="17" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
         <v>40</v>
       </c>
@@ -3432,7 +3480,7 @@
       <c r="P17" s="21"/>
       <c r="Q17" s="21"/>
     </row>
-    <row r="18" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
         <v>41</v>
       </c>
@@ -3448,7 +3496,9 @@
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
+      <c r="J18" s="21">
+        <v>0.1</v>
+      </c>
       <c r="K18" s="21"/>
       <c r="L18" s="21"/>
       <c r="M18" s="21"/>
@@ -3457,7 +3507,7 @@
       <c r="P18" s="21"/>
       <c r="Q18" s="21"/>
     </row>
-    <row r="19" spans="1:17" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
         <v>42</v>
       </c>
@@ -3473,7 +3523,9 @@
       <c r="G19" s="21"/>
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
+      <c r="J19" s="21">
+        <v>0.5</v>
+      </c>
       <c r="K19" s="21"/>
       <c r="L19" s="21"/>
       <c r="M19" s="21"/>
@@ -3482,7 +3534,7 @@
       <c r="P19" s="21"/>
       <c r="Q19" s="21"/>
     </row>
-    <row r="20" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>21</v>
       </c>
@@ -3507,7 +3559,7 @@
       <c r="P20" s="21"/>
       <c r="Q20" s="21"/>
     </row>
-    <row r="21" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>22</v>
       </c>
@@ -3532,7 +3584,7 @@
       <c r="P21" s="21"/>
       <c r="Q21" s="21"/>
     </row>
-    <row r="22" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>43</v>
       </c>
@@ -3557,7 +3609,7 @@
       <c r="P22" s="21"/>
       <c r="Q22" s="21"/>
     </row>
-    <row r="23" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>44</v>
       </c>
@@ -3582,7 +3634,7 @@
       <c r="P23" s="21"/>
       <c r="Q23" s="21"/>
     </row>
-    <row r="24" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
         <v>23</v>
       </c>
@@ -3607,7 +3659,7 @@
       <c r="P24" s="21"/>
       <c r="Q24" s="21"/>
     </row>
-    <row r="25" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
         <v>24</v>
       </c>
@@ -3632,7 +3684,7 @@
       <c r="P25" s="21"/>
       <c r="Q25" s="21"/>
     </row>
-    <row r="26" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
         <v>25</v>
       </c>
@@ -3657,7 +3709,7 @@
       <c r="P26" s="21"/>
       <c r="Q26" s="21"/>
     </row>
-    <row r="27" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
         <v>45</v>
       </c>
@@ -3682,7 +3734,7 @@
       <c r="P27" s="21"/>
       <c r="Q27" s="21"/>
     </row>
-    <row r="28" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
         <v>26</v>
       </c>
@@ -3698,7 +3750,9 @@
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
       <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
+      <c r="J28" s="21">
+        <v>0.3</v>
+      </c>
       <c r="K28" s="21"/>
       <c r="L28" s="21"/>
       <c r="M28" s="21"/>
@@ -3707,7 +3761,7 @@
       <c r="P28" s="21"/>
       <c r="Q28" s="21"/>
     </row>
-    <row r="29" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="15" t="s">
         <v>46</v>
       </c>
@@ -3732,7 +3786,7 @@
       <c r="P29" s="21"/>
       <c r="Q29" s="21"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="23" t="s">
         <v>32</v>
       </c>
@@ -3757,7 +3811,7 @@
       <c r="P30" s="21"/>
       <c r="Q30" s="21"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="23" t="s">
         <v>33</v>
       </c>
@@ -3782,7 +3836,7 @@
       <c r="P31" s="21"/>
       <c r="Q31" s="21"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="23" t="s">
         <v>34</v>
       </c>
@@ -3807,7 +3861,7 @@
       <c r="P32" s="21"/>
       <c r="Q32" s="21"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="23" t="s">
         <v>35</v>
       </c>
@@ -3832,7 +3886,7 @@
       <c r="P33" s="21"/>
       <c r="Q33" s="21"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="23" t="s">
         <v>48</v>
       </c>
@@ -3857,7 +3911,7 @@
       <c r="P34" s="21"/>
       <c r="Q34" s="21"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="23" t="s">
         <v>47</v>
       </c>
@@ -3882,7 +3936,7 @@
       <c r="P35" s="21"/>
       <c r="Q35" s="21"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="23" t="s">
         <v>49</v>
       </c>
@@ -3907,7 +3961,7 @@
       <c r="P36" s="21"/>
       <c r="Q36" s="21"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="23" t="s">
         <v>50</v>
       </c>
@@ -3932,7 +3986,7 @@
       <c r="P37" s="21"/>
       <c r="Q37" s="21"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="23" t="s">
         <v>51</v>
       </c>
@@ -3957,7 +4011,7 @@
       <c r="P38" s="21"/>
       <c r="Q38" s="21"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="23" t="s">
         <v>52</v>
       </c>
@@ -3982,7 +4036,7 @@
       <c r="P39" s="21"/>
       <c r="Q39" s="21"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="23" t="s">
         <v>53</v>
       </c>
@@ -4007,7 +4061,7 @@
       <c r="P40" s="21"/>
       <c r="Q40" s="21"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="23" t="s">
         <v>54</v>
       </c>
@@ -4032,7 +4086,7 @@
       <c r="P41" s="21"/>
       <c r="Q41" s="21"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="23" t="s">
         <v>56</v>
       </c>
@@ -4053,7 +4107,7 @@
       <c r="P42" s="21"/>
       <c r="Q42" s="21"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="18"/>
       <c r="B43" s="17"/>
       <c r="C43" s="16"/>
@@ -4072,98 +4126,98 @@
       <c r="P43" s="21"/>
       <c r="Q43" s="21"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="17" t="s">
         <v>15</v>
       </c>
       <c r="B44" s="17"/>
-      <c r="C44" s="40">
-        <f>SUM(C4:C41)</f>
+      <c r="C44" s="33">
+        <f t="shared" ref="C44:Q44" si="0">SUM(C4:C41)</f>
         <v>74.099999999999994</v>
       </c>
-      <c r="D44" s="41">
-        <f>SUM(D4:D41)</f>
-        <v>0.75</v>
-      </c>
-      <c r="E44" s="41">
-        <f>SUM(E4:E41)</f>
+      <c r="D44" s="34">
+        <f t="shared" si="0"/>
+        <v>0.85</v>
+      </c>
+      <c r="E44" s="34">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F44" s="41">
-        <f>SUM(F4:F41)</f>
+      <c r="F44" s="34">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G44" s="41">
-        <f>SUM(G4:G41)</f>
+      <c r="G44" s="34">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H44" s="41">
-        <f>SUM(H4:H41)</f>
+      <c r="H44" s="34">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I44" s="41">
-        <f>SUM(I4:I41)</f>
+      <c r="I44" s="34">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J44" s="41">
-        <f>SUM(J4:J41)</f>
+      <c r="J44" s="34">
+        <f t="shared" si="0"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="K44" s="34">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K44" s="41">
-        <f>SUM(K4:K41)</f>
+      <c r="L44" s="34">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L44" s="41">
-        <f>SUM(L4:L41)</f>
+      <c r="M44" s="34">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M44" s="41">
-        <f>SUM(M4:M41)</f>
+      <c r="N44" s="34">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N44" s="41">
-        <f>SUM(N4:N41)</f>
+      <c r="O44" s="34">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O44" s="41">
-        <f>SUM(O4:O41)</f>
+      <c r="P44" s="34">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P44" s="41">
-        <f>SUM(P4:P41)</f>
+      <c r="Q44" s="34">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q44" s="41">
-        <f>SUM(Q4:Q41)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="5">
         <f>C44-SUM(D44:Q44)</f>
-        <v>73.349999999999994</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+        <v>72.349999999999994</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B46" s="4"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B47" s="4"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B48" s="4"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" s="4"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" s="4"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" s="4"/>
     </row>
   </sheetData>
@@ -4185,15 +4239,15 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7265625" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" customWidth="1"/>
     <col min="4" max="4" width="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -4204,7 +4258,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>42669</v>
       </c>
@@ -4212,7 +4266,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="62" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>42669</v>
       </c>
@@ -4232,7 +4286,7 @@
       </c>
       <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>42669</v>
       </c>
@@ -4252,7 +4306,7 @@
       </c>
       <c r="F4" s="9"/>
     </row>
-    <row r="5" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>42669</v>
       </c>
@@ -4272,7 +4326,7 @@
       </c>
       <c r="F5" s="9"/>
     </row>
-    <row r="6" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>42670</v>
       </c>
@@ -4292,7 +4346,7 @@
       </c>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>42670</v>
       </c>
@@ -4312,7 +4366,7 @@
       </c>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>42670</v>
       </c>
@@ -4332,7 +4386,7 @@
       </c>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>42671</v>
       </c>
@@ -4352,7 +4406,7 @@
       </c>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>42673</v>
       </c>
@@ -4372,7 +4426,7 @@
       </c>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>42673</v>
       </c>
@@ -4392,7 +4446,7 @@
       </c>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>42673</v>
       </c>
@@ -4412,7 +4466,7 @@
       </c>
       <c r="F12" s="9"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>42674</v>
       </c>
@@ -4432,7 +4486,7 @@
       </c>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>42675</v>
       </c>
@@ -4452,7 +4506,7 @@
       </c>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>42675</v>
       </c>
@@ -4472,7 +4526,7 @@
       </c>
       <c r="F15" s="10"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>42675</v>
       </c>
